--- a/biology/Histoire de la zoologie et de la botanique/Carole_Meredith/Carole_Meredith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carole_Meredith/Carole_Meredith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carole P. Meredith est une chercheuse américaine. Elle est surtout connue pour ses travaux sur l'ADN de la vigne. Ses collaborateurs l'ont surnommée « Dr DNA »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carole P. Meredith est une chercheuse américaine. Elle est surtout connue pour ses travaux sur l'ADN de la vigne. Ses collaborateurs l'ont surnommée « Dr DNA ».
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Travaux de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle inclut la génétique de l'ADN de la vigne dans le programme du département de recherche viticole de Davis, dès les années 1970. Les travaux de son équipe l'ont conduite à mettre au point des tests ADN permettant de reconstituer l'histoire d'un cépage, voire d'en déterminer l'origine[1]. 
-Parmi ses travaux, son équipe a découvert que les parents du cabernet sauvignon N sont le cabernet franc N et le sauvignon B[2],[3] et reconnu que le zinfandel était le crljenak kaštelanski croate, étant passé par l'Italie sous le nom de primitivo[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle inclut la génétique de l'ADN de la vigne dans le programme du département de recherche viticole de Davis, dès les années 1970. Les travaux de son équipe l'ont conduite à mettre au point des tests ADN permettant de reconstituer l'histoire d'un cépage, voire d'en déterminer l'origine. 
+Parmi ses travaux, son équipe a découvert que les parents du cabernet sauvignon N sont le cabernet franc N et le sauvignon B, et reconnu que le zinfandel était le crljenak kaštelanski croate, étant passé par l'Italie sous le nom de primitivo.
 Son équipe s'est rapprochée de celle de Jean-Marie Boursiquot à l'École nationale supérieure agronomique de Montpellier. Celle de Davis gère les tests ADN, celle de Montpellier compare les trouvailles avec la banque de données du domaine de Vassal.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Le domaine Lagier-Meredith</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1994, Carole Meredith et son mari Steve Lagier plantent de la syrah dans leur propriété nommée domaine Lagier-Meredith, à contre-courant de leurs voisins qui cultivaient essentiellement le cabernet sauvignon. Elle en dit : « We really liked the flavor, and we thought we had a really good site for it. » (« Nous aimions vraiment son arôme et nous pensions posséder un très bon terroir pour elle. »)[1].
-En 2003, elle clôt son travail universitaire et décide à 55 ans, de rejoindre le domaine, géré par Steve Lagier[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, Carole Meredith et son mari Steve Lagier plantent de la syrah dans leur propriété nommée domaine Lagier-Meredith, à contre-courant de leurs voisins qui cultivaient essentiellement le cabernet sauvignon. Elle en dit : « We really liked the flavor, and we thought we had a really good site for it. » (« Nous aimions vraiment son arôme et nous pensions posséder un très bon terroir pour elle. »).
+En 2003, elle clôt son travail universitaire et décide à 55 ans, de rejoindre le domaine, géré par Steve Lagier.
 </t>
         </is>
       </c>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
